--- a/其他文件/cost get测算3.xlsx
+++ b/其他文件/cost get测算3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zn/OneDrive/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zn/IdeaProjects/MLofAndrew-Ng/其他文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7045ECBF-3140-514A-BCF1-11607D630732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C087597-A9EC-7242-AB0C-6F5B5721385A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="6460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{96424A44-B3F4-9547-ADE4-8116FEE34D4A}"/>
+    <workbookView xWindow="780" yWindow="6260" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{96424A44-B3F4-9547-ADE4-8116FEE34D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="254">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1065,6 +1065,10 @@
   </si>
   <si>
     <t>8个共计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1717,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09432E6-44D9-894D-83BB-A56E200E50C6}">
   <dimension ref="A1:AC154"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView topLeftCell="A80" zoomScale="81" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4541,7 +4545,7 @@
         <f>K85/K84</f>
         <v>1.2</v>
       </c>
-      <c r="M84" s="29">
+      <c r="M84" s="7">
         <v>10</v>
       </c>
       <c r="N84" s="6">
@@ -4574,7 +4578,7 @@
       <c r="G85" s="20">
         <v>977100</v>
       </c>
-      <c r="I85" s="29">
+      <c r="I85" s="7">
         <v>11</v>
       </c>
       <c r="J85" s="6">
@@ -4587,7 +4591,7 @@
         <f t="shared" ref="L85:L93" si="17">K86/K85</f>
         <v>1.1999795312659911</v>
       </c>
-      <c r="M85" s="29">
+      <c r="M85" s="7">
         <v>11</v>
       </c>
       <c r="N85" s="6">
@@ -4611,7 +4615,7 @@
       <c r="C86" s="1">
         <v>390800</v>
       </c>
-      <c r="E86" s="29">
+      <c r="E86" s="7">
         <v>12</v>
       </c>
       <c r="F86" s="6">
@@ -4620,7 +4624,7 @@
       <c r="G86" s="20">
         <v>1172500</v>
       </c>
-      <c r="I86" s="29">
+      <c r="I86" s="7">
         <v>12</v>
       </c>
       <c r="J86" s="6">
@@ -4657,7 +4661,7 @@
       <c r="C87" s="1">
         <v>469000</v>
       </c>
-      <c r="E87" s="29">
+      <c r="E87" s="7">
         <v>13</v>
       </c>
       <c r="F87" s="6">
@@ -4666,7 +4670,7 @@
       <c r="G87" s="20">
         <v>1407000</v>
       </c>
-      <c r="I87" s="29">
+      <c r="I87" s="7">
         <v>13</v>
       </c>
       <c r="J87" s="6">
@@ -4710,7 +4714,7 @@
       <c r="C88" s="1">
         <v>562800</v>
       </c>
-      <c r="E88" s="29">
+      <c r="E88" s="7">
         <v>14</v>
       </c>
       <c r="F88" s="6">
@@ -4756,7 +4760,7 @@
       <c r="C89" s="1">
         <v>675400</v>
       </c>
-      <c r="E89" s="29">
+      <c r="E89" s="7">
         <v>15</v>
       </c>
       <c r="F89" s="6">
@@ -4809,7 +4813,7 @@
       <c r="C90" s="1">
         <v>810500</v>
       </c>
-      <c r="E90" s="29">
+      <c r="E90" s="7">
         <v>16</v>
       </c>
       <c r="F90" s="6">
@@ -4871,7 +4875,7 @@
       <c r="C91" s="20">
         <v>972600</v>
       </c>
-      <c r="E91" s="29">
+      <c r="E91" s="7">
         <v>17</v>
       </c>
       <c r="F91" s="6">
@@ -4986,7 +4990,7 @@
       </c>
     </row>
     <row r="93" spans="1:29">
-      <c r="A93" s="29">
+      <c r="A93" s="7">
         <v>19</v>
       </c>
       <c r="B93" s="25">
@@ -5060,8 +5064,8 @@
         <v>101</v>
       </c>
       <c r="I95" s="1">
-        <f>G85+C92+G86+O83+C93+G87+K84+G88</f>
-        <v>10948900</v>
+        <f>SUM(G91:G92,K87:K89,O85:O86)</f>
+        <v>23826700</v>
       </c>
       <c r="K95" s="1"/>
       <c r="O95" s="1"/>
@@ -5091,11 +5095,11 @@
       </c>
       <c r="I96">
         <f>I95/B102</f>
-        <v>101.04189737910669</v>
+        <v>219.88464377999262</v>
       </c>
       <c r="J96">
         <f>I95/F102/24</f>
-        <v>3.6546914262672874</v>
+        <v>7.9532406183491284</v>
       </c>
       <c r="L96" s="1"/>
       <c r="S96" t="s">
@@ -5131,7 +5135,7 @@
       </c>
       <c r="I97">
         <f>I96/24</f>
-        <v>4.2100790574627789</v>
+        <v>9.1618601574996923</v>
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -6657,14 +6661,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F7E6DC-6184-8143-B29E-9FBBD3AB53FF}">
   <dimension ref="A2:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7232,8 +7236,8 @@
       <c r="F27">
         <v>8000</v>
       </c>
-      <c r="G27" s="24">
-        <v>0.65400000000000003</v>
+      <c r="G27" s="24" t="s">
+        <v>253</v>
       </c>
       <c r="H27">
         <f>F27-E27</f>
@@ -7803,6 +7807,19 @@
       </c>
     </row>
     <row r="40" spans="1:15">
+      <c r="E40">
+        <v>7301</v>
+      </c>
+      <c r="F40">
+        <v>8000</v>
+      </c>
+      <c r="G40" s="24">
+        <v>0.1736</v>
+      </c>
+      <c r="H40">
+        <f>F40-E40</f>
+        <v>699</v>
+      </c>
       <c r="I40">
         <v>6121</v>
       </c>

--- a/其他文件/cost get测算3.xlsx
+++ b/其他文件/cost get测算3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zn/IdeaProjects/MLofAndrew-Ng/其他文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C087597-A9EC-7242-AB0C-6F5B5721385A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E334C45-6AFC-CE4E-82B0-56654E2BEFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="6260" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{96424A44-B3F4-9547-ADE4-8116FEE34D4A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{96424A44-B3F4-9547-ADE4-8116FEE34D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1722,7 +1722,7 @@
   <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView topLeftCell="A80" zoomScale="81" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6661,8 +6661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F7E6DC-6184-8143-B29E-9FBBD3AB53FF}">
   <dimension ref="A2:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7843,6 +7843,19 @@
       </c>
     </row>
     <row r="41" spans="1:15">
+      <c r="E41">
+        <v>7401</v>
+      </c>
+      <c r="F41">
+        <v>8000</v>
+      </c>
+      <c r="G41" s="24">
+        <v>0.1447</v>
+      </c>
+      <c r="H41">
+        <f>F42-E42</f>
+        <v>499</v>
+      </c>
       <c r="I41" s="25">
         <v>5101</v>
       </c>
@@ -7866,6 +7879,19 @@
       </c>
     </row>
     <row r="42" spans="1:15">
+      <c r="E42">
+        <v>7501</v>
+      </c>
+      <c r="F42">
+        <v>8000</v>
+      </c>
+      <c r="G42" s="24">
+        <v>0.1174</v>
+      </c>
+      <c r="H42">
+        <f>F41-E41</f>
+        <v>599</v>
+      </c>
       <c r="I42">
         <v>6121</v>
       </c>
